--- a/mf-intelligence/data/separated_files/nippon/Nippon India Multi Asset Allocation Fund/Nippon India Multi Asset Allocation Fund_Jan_2026.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Multi Asset Allocation Fund/Nippon India Multi Asset Allocation Fund_Jan_2026.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -3551,759 +3551,765 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>14740454USD</t>
+          <t>BRFI23</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>US4642863926</t>
+          <t>INE0FDU07018</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>iShares MSCI World ETF</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>7.06% Brookfield India Real Estate Trust**</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>CRISIL AAA</t>
+        </is>
+      </c>
       <c r="E98" t="n">
-        <v>411780</v>
+        <v>10000</v>
       </c>
       <c r="F98" t="n">
-        <v>71759.56</v>
+        <v>9901.889999999999</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0573</v>
-      </c>
-      <c r="H98" t="inlineStr"/>
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.076464</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>GOI5833</t>
+          <t>MUFL467</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>IN0020240076</t>
+          <t>INE414G07JS2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>7.02% Government of India</t>
+          <t>7.88% Muthoot Finance Limited**</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>15000000</v>
+        <v>9500</v>
       </c>
       <c r="F99" t="n">
-        <v>15331.41</v>
+        <v>9469.889999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0123</v>
+        <v>0.0076</v>
       </c>
       <c r="H99" t="n">
-        <v>0.066306</v>
+        <v>0.079912</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>GOI6156</t>
+          <t>ADAP31</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>IN0020240126</t>
+          <t>INE814H07208</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>6.79% Government of India</t>
+          <t>8.2% Adani Power Limited**</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>11000000</v>
+        <v>6000</v>
       </c>
       <c r="F100" t="n">
-        <v>11038.5</v>
+        <v>5977.57</v>
       </c>
       <c r="G100" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0048</v>
       </c>
       <c r="H100" t="n">
-        <v>0.06847499999999999</v>
+        <v>0.086103</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>GOI5081</t>
+          <t>POWF376</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>IN0020230036</t>
+          <t>INE134E08IX1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>7.17% Government of India</t>
+          <t>7.75% Power Finance Corporation Limited**</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>9500000</v>
+        <v>500</v>
       </c>
       <c r="F101" t="n">
-        <v>9772.700000000001</v>
+        <v>5033.97</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0078</v>
+        <v>0.004</v>
       </c>
       <c r="H101" t="n">
-        <v>0.064799</v>
+        <v>0.0723</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>GOI5713</t>
+          <t>TCHE76</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>IN0020240019</t>
+          <t>INE092A08071</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>7.1% Government of India</t>
+          <t>7.81% Tata Chemicals Limited**</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>7500000</v>
+        <v>5000</v>
       </c>
       <c r="F102" t="n">
-        <v>7668.67</v>
+        <v>5002.22</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0061</v>
+        <v>0.004</v>
       </c>
       <c r="H102" t="n">
-        <v>0.068493</v>
+        <v>0.077275</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>GOI6997</t>
+          <t>POWF534</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>IN2920250163</t>
+          <t>INE134E08ND3</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>7.49% State Government Securities</t>
+          <t>7.27% Power Finance Corporation Limited</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>7500000</v>
+        <v>5000</v>
       </c>
       <c r="F103" t="n">
-        <v>7505.24</v>
+        <v>4963.64</v>
       </c>
       <c r="G103" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="H103" t="n">
-        <v>0.076182</v>
+        <v>0.0742</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>GOI4976</t>
+          <t>TCAL534</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>IN0020220151</t>
+          <t>INE976I07DB5</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>7.26% Government of India</t>
+          <t>7.12% Tata Capital Limited**</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6000000</v>
+        <v>5000</v>
       </c>
       <c r="F104" t="n">
-        <v>6180.05</v>
+        <v>4943.24</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0049</v>
+        <v>0.004</v>
       </c>
       <c r="H104" t="n">
-        <v>0.06829</v>
+        <v>0.075695</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>GOI4462</t>
+          <t>NCCL50</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>IN1520220022</t>
+          <t>INE118D08078</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>7.8% State Government Securities</t>
+          <t>7.7% Nuvoco Vistas Corporation Limited**</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>5000000</v>
+        <v>5000</v>
       </c>
       <c r="F105" t="n">
-        <v>5137.42</v>
+        <v>4935.19</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0041</v>
+        <v>0.0039</v>
       </c>
       <c r="H105" t="n">
-        <v>0.073794</v>
+        <v>0.082375</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>GOI3470</t>
+          <t>ADAP30</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>IN2920190443</t>
+          <t>INE814H07190</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>6.84% State Government Securities</t>
+          <t>8% Adani Power Limited**</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>5000000</v>
+        <v>4500</v>
       </c>
       <c r="F106" t="n">
-        <v>4962.17</v>
+        <v>4478.02</v>
       </c>
       <c r="G106" t="n">
-        <v>0.004</v>
+        <v>0.0036</v>
       </c>
       <c r="H106" t="n">
-        <v>0.071766</v>
+        <v>0.08533200000000001</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>GOI6889</t>
+          <t>TOPH23</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>IN0020250042</t>
+          <t>INE685A07173</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>6.68% Government of India</t>
+          <t>7.8% Torrent Pharmaceuticals Limited**</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AA+</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>5000000</v>
+        <v>3500</v>
       </c>
       <c r="F107" t="n">
-        <v>4815.86</v>
+        <v>3519.4</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0038</v>
+        <v>0.0028</v>
       </c>
       <c r="H107" t="n">
-        <v>0.072167</v>
+        <v>0.07659299999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>GOI3472</t>
+          <t>LTMR58</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>IN3320200295</t>
+          <t>INE128M08094</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>7.08% State Government Securities</t>
+          <t>7.55% L&amp;T Metro Rail (Hyderabad) Limited**</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA(CE)</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4000000</v>
+        <v>3500</v>
       </c>
       <c r="F108" t="n">
-        <v>3991.1</v>
+        <v>3500.48</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0032</v>
+        <v>0.0028</v>
       </c>
       <c r="H108" t="n">
-        <v>0.072593</v>
+        <v>0.0754195</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GOI4068</t>
+          <t>KMIL514</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>IN3120210361</t>
+          <t>INE975F07JB0</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>7.03% State Government Securities</t>
+          <t>7.61% Kotak Mahindra Investments Limited**</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>2500000</v>
+        <v>3500</v>
       </c>
       <c r="F109" t="n">
-        <v>2502.82</v>
+        <v>3499.87</v>
       </c>
       <c r="G109" t="n">
-        <v>0.002</v>
+        <v>0.0028</v>
       </c>
       <c r="H109" t="n">
-        <v>0.071177</v>
+        <v>0.07615</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>GOI3081</t>
+          <t>NBAR838</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>IN2920200796</t>
+          <t>INE261F08EO7</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>7.15% State Government Securities</t>
+          <t>7.48% National Bank For Agriculture and Rural Development</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2500000</v>
+        <v>3000</v>
       </c>
       <c r="F110" t="n">
-        <v>2499.37</v>
+        <v>3019.02</v>
       </c>
       <c r="G110" t="n">
-        <v>0.002</v>
+        <v>0.0024</v>
       </c>
       <c r="H110" t="n">
-        <v>0.07281</v>
+        <v>0.071796</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>GOI3493</t>
+          <t>HURD210</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>IN2220210073</t>
+          <t>INE031A08699</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>6.78% State Government Securities</t>
+          <t>8.41% Housing &amp; Urban Development Corporation Limited**</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>2500000</v>
+        <v>250</v>
       </c>
       <c r="F111" t="n">
-        <v>2465.82</v>
+        <v>2584.43</v>
       </c>
       <c r="G111" t="n">
-        <v>0.002</v>
+        <v>0.0021</v>
       </c>
       <c r="H111" t="n">
-        <v>0.072157</v>
+        <v>0.07305</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>GOI1834</t>
+          <t>ICHF234</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>IN3420160175</t>
+          <t>INE071G07736</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>7.92% State Government Securities</t>
+          <t>7.94% ICICI Home Finance Company Limited**</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1000000</v>
+        <v>2500</v>
       </c>
       <c r="F112" t="n">
-        <v>1020.13</v>
+        <v>2526.76</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0008</v>
+        <v>0.002</v>
       </c>
       <c r="H112" t="n">
-        <v>0.06119</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GOI1831</t>
+          <t>LICH671</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>IN3420160183</t>
+          <t>INE115A07QM6</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>7.64% State Government Securities</t>
+          <t>7.77% LIC Housing Finance Limited</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1000000</v>
+        <v>250</v>
       </c>
       <c r="F113" t="n">
-        <v>1017.47</v>
+        <v>2524.51</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0008</v>
+        <v>0.002</v>
       </c>
       <c r="H113" t="n">
-        <v>0.061396</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>GOI7173</t>
+          <t>TFSI48</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>IN1320210033</t>
+          <t>INE692Q07548</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>6.75% State Government Securities</t>
+          <t>8.06% Toyota Financial Services India Limited**</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1000000</v>
+        <v>2500</v>
       </c>
       <c r="F114" t="n">
-        <v>1006.32</v>
+        <v>2516.47</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0008</v>
+        <v>0.002</v>
       </c>
       <c r="H114" t="n">
-        <v>0.063766</v>
+        <v>0.07695</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GOI3025</t>
+          <t>HEHO24</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>IN2920200622</t>
+          <t>INE800X07071</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>6.85% State Government Securities</t>
+          <t>8.5% Hero Housing Finance Limited**</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1000000</v>
+        <v>2500</v>
       </c>
       <c r="F115" t="n">
-        <v>986.1900000000001</v>
+        <v>2506.87</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0008</v>
+        <v>0.002</v>
       </c>
       <c r="H115" t="n">
-        <v>0.07312100000000001</v>
+        <v>0.0827</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BRFI23</t>
+          <t>IIFC67</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>INE0FDU07018</t>
+          <t>INE787H08154</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>7.06% Brookfield India Real Estate Trust**</t>
+          <t>7.47% India Infrastructure Fin Co Ltd**</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="F116" t="n">
-        <v>9901.889999999999</v>
+        <v>2506.55</v>
       </c>
       <c r="G116" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="H116" t="n">
-        <v>0.076464</v>
+        <v>0.07277500000000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MUFL467</t>
+          <t>NBAR701</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>INE414G07JS2</t>
+          <t>INE261F08DX0</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>7.88% Muthoot Finance Limited**</t>
+          <t>7.58% National Bank For Agriculture and Rural Development</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>9500</v>
+        <v>2500</v>
       </c>
       <c r="F117" t="n">
-        <v>9469.889999999999</v>
+        <v>2498.61</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0076</v>
+        <v>0.002</v>
       </c>
       <c r="H117" t="n">
-        <v>0.079912</v>
+        <v>0.074125</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ADAP31</t>
+          <t>SIDB519</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>INE814H07208</t>
+          <t>INE556F08KI9</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>8.2% Adani Power Limited**</t>
+          <t>7.44% Small Industries Dev Bank of India**</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="F118" t="n">
-        <v>5977.57</v>
+        <v>2497.16</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0048</v>
+        <v>0.002</v>
       </c>
       <c r="H118" t="n">
-        <v>0.086103</v>
+        <v>0.07414999999999999</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>POWF376</t>
+          <t>IBCL1179</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>INE134E08IX1</t>
+          <t>INE090A08UN9</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>7.75% Power Finance Corporation Limited**</t>
+          <t>7.4% ICICI Bank Limited**</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="F119" t="n">
-        <v>5033.97</v>
+        <v>2462.32</v>
       </c>
       <c r="G119" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0723</v>
+        <v>0.075681</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TCHE76</t>
+          <t>GHFL46</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>INE092A08071</t>
+          <t>INE02JD07041</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>7.81% Tata Chemicals Limited**</t>
+          <t>8.4% Godrej Housing Finance Limited**</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4312,66 +4318,66 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="F120" t="n">
-        <v>5002.22</v>
+        <v>2015.77</v>
       </c>
       <c r="G120" t="n">
-        <v>0.004</v>
+        <v>0.0016</v>
       </c>
       <c r="H120" t="n">
-        <v>0.077275</v>
+        <v>0.0793</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>POWF534</t>
+          <t>NBAR633</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>INE134E08ND3</t>
+          <t>INE261F08DA8</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>7.27% Power Finance Corporation Limited</t>
+          <t>6.85% National Bank For Agriculture and Rural Development**</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>5000</v>
+        <v>70</v>
       </c>
       <c r="F121" t="n">
-        <v>4963.64</v>
+        <v>689.41</v>
       </c>
       <c r="G121" t="n">
-        <v>0.004</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0742</v>
+        <v>0.07335</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TCAL534</t>
+          <t>NBAR695</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>INE976I07DB5</t>
+          <t>INE261F08DV4</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>7.12% Tata Capital Limited**</t>
+          <t>7.62% National Bank For Agriculture and Rural Development</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4380,1191 +4386,411 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F122" t="n">
-        <v>4943.24</v>
+        <v>503.94</v>
       </c>
       <c r="G122" t="n">
-        <v>0.004</v>
+        <v>0.0004</v>
       </c>
       <c r="H122" t="n">
-        <v>0.075695</v>
+        <v>0.071715</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>NCCL50</t>
+          <t>TOPH24</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>INE118D08078</t>
+          <t>INE685A07157</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>7.7% Nuvoco Vistas Corporation Limited**</t>
+          <t>7.6% Torrent Pharmaceuticals Limited**</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>ICRA AA+</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>5000</v>
+        <v>91</v>
       </c>
       <c r="F123" t="n">
-        <v>4935.19</v>
+        <v>91.05</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0039</v>
+        <v>0.0001</v>
       </c>
       <c r="H123" t="n">
-        <v>0.082375</v>
+        <v>0.075739</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ADAP30</t>
+          <t>SAEL21PS</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>INE814H07190</t>
+          <t>INE494B04019</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>8% Adani Power Limited**</t>
+          <t>TVS Motor Company Limited Preference Shares**</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>CARE A1+</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>4500</v>
+        <v>400000</v>
       </c>
       <c r="F124" t="n">
-        <v>4478.02</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.08533200000000001</v>
-      </c>
+        <v>40.89</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>$0.00%</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TOPH23</t>
+          <t>JTMT20</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>INE685A07173</t>
+          <t>INE02PE08036</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>7.8% Torrent Pharmaceuticals Limited**</t>
+          <t>JTPM Metal Traders Limited**</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ICRA AA+</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="F125" t="n">
-        <v>3519.4</v>
+        <v>5157.25</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0028</v>
+        <v>0.0041</v>
       </c>
       <c r="H125" t="n">
-        <v>0.07659299999999999</v>
+        <v>0.08375</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>LTMR58</t>
+          <t>NHIT23</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INE128M08094</t>
+          <t>INE0H7R07066</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>7.55% L&amp;T Metro Rail (Hyderabad) Limited**</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>CRISIL AAA(CE)</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3500</v>
+        <v>1750</v>
       </c>
       <c r="F126" t="n">
-        <v>3500.48</v>
+        <v>956.33</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0028</v>
+        <v>0.0008</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0754195</v>
+        <v>0.078515</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>KMIL514</t>
+          <t>NHIT24</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INE975F07JB0</t>
+          <t>INE0H7R07058</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>7.61% Kotak Mahindra Investments Limited**</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>3500</v>
+        <v>1750</v>
       </c>
       <c r="F127" t="n">
-        <v>3499.87</v>
+        <v>885.62</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0028</v>
+        <v>0.0007</v>
       </c>
       <c r="H127" t="n">
-        <v>0.07615</v>
+        <v>0.078663</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>NBAR838</t>
+          <t>LIGS22</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INE261F08EO7</t>
+          <t>INE1U3R15011</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>7.48% National Bank For Agriculture and Rural Development</t>
+          <t>Liquid Gold Series**</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CRISIL AAA(SO)</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>3000</v>
+        <v>119.999997</v>
       </c>
       <c r="F128" t="n">
-        <v>3019.02</v>
+        <v>1847.67</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0024</v>
+        <v>0.0015</v>
       </c>
       <c r="H128" t="n">
-        <v>0.071796</v>
+        <v>0.09765</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HURD210</t>
+          <t>SIDB638</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INE031A08699</t>
+          <t>INE556F16BS0</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>8.41% Housing &amp; Urban Development Corporation Limited**</t>
+          <t>Small Industries Dev Bank of India**</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ICRA AAA</t>
+          <t>CARE A1+</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="F129" t="n">
-        <v>2584.43</v>
+        <v>9425.9</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0021</v>
+        <v>0.0075</v>
       </c>
       <c r="H129" t="n">
-        <v>0.07305</v>
+        <v>0.07265000000000001</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ICHF234</t>
+          <t>HDFB1021</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>INE071G07736</t>
+          <t>INE040A16HU9</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>7.94% ICICI Home Finance Company Limited**</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ICRA AAA</t>
+          <t>CARE A1+</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F130" t="n">
-        <v>2526.76</v>
+        <v>7115.24</v>
       </c>
       <c r="G130" t="n">
-        <v>0.002</v>
+        <v>0.0057</v>
       </c>
       <c r="H130" t="n">
-        <v>0.0757</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>LICH671</t>
+          <t>NBAR870</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INE115A07QM6</t>
+          <t>INE261F16AD1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>7.77% LIC Housing Finance Limited</t>
+          <t>National Bank For Agriculture and Rural Development**</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="F131" t="n">
-        <v>2524.51</v>
+        <v>4679.78</v>
       </c>
       <c r="G131" t="n">
-        <v>0.002</v>
+        <v>0.0037</v>
       </c>
       <c r="H131" t="n">
-        <v>0.073</v>
+        <v>0.071978</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TFSI48</t>
+          <t>SHBK20</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INE692Q07548</t>
+          <t>INE999S16023</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>8.06% Toyota Financial Services India Limited**</t>
+          <t>Shinhan Bank**</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>ICRA AAA</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="F132" t="n">
-        <v>2516.47</v>
+        <v>2416.48</v>
       </c>
       <c r="G132" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="H132" t="n">
-        <v>0.07695</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HEHO24</t>
+          <t>SHPI21</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INE800X07071</t>
+          <t>INE526E14086</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>8.5% Hero Housing Finance Limited**</t>
+          <t>Shriram Pistons and Rings Ltd**</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>FITCH A1+</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="F133" t="n">
-        <v>2506.87</v>
+        <v>4978.48</v>
       </c>
       <c r="G133" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0827</v>
+        <v>0.06859800000000001</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>IIFC67</t>
-        </is>
-      </c>
+      <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
-          <t>INE787H08154</t>
+          <t>INE090A08UN9</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>7.47% India Infrastructure Fin Co Ltd**</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2506.55</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.07277500000000001</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>NBAR701</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>INE261F08DX0</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>7.58% National Bank For Agriculture and Rural Development</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2498.61</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.074125</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>SIDB519</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>INE556F08KI9</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>7.44% Small Industries Dev Bank of India**</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F136" t="n">
-        <v>2497.16</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.07414999999999999</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>IBCL1179</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>INE090A08UN9</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>7.4% ICICI Bank Limited**</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>ICRA AAA</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>25</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2462.32</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.075681</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>GHFL46</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>INE02JD07041</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>8.4% Godrej Housing Finance Limited**</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>CRISIL AA+</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2015.77</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.0793</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>NBAR633</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>INE261F08DA8</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>6.85% National Bank For Agriculture and Rural Development**</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>ICRA AAA</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>70</v>
-      </c>
-      <c r="F139" t="n">
-        <v>689.41</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0.07335</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>NBAR695</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>INE261F08DV4</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>7.62% National Bank For Agriculture and Rural Development</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>500</v>
-      </c>
-      <c r="F140" t="n">
-        <v>503.94</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.071715</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>TOPH24</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>INE685A07157</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>7.6% Torrent Pharmaceuticals Limited**</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>ICRA AA+</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>91</v>
-      </c>
-      <c r="F141" t="n">
-        <v>91.05</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.075739</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>SAEL21PS</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>INE494B04019</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>TVS Motor Company Limited Preference Shares**</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>CARE A1+</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>400000</v>
-      </c>
-      <c r="F142" t="n">
-        <v>40.89</v>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>JTMT20</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>INE02PE08036</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>JTPM Metal Traders Limited**</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>CRISIL AA</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F143" t="n">
-        <v>5157.25</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0.08375</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>NHIT23</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>INE0H7R07066</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>1750</v>
-      </c>
-      <c r="F144" t="n">
-        <v>956.33</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.078515</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>NHIT24</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>INE0H7R07058</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>1750</v>
-      </c>
-      <c r="F145" t="n">
-        <v>885.62</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.078663</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>LIGS22</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>INE1U3R15011</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Liquid Gold Series**</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>CRISIL AAA(SO)</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>119.999997</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1847.67</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.09765</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>SIDB638</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>INE556F16BS0</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Small Industries Dev Bank of India**</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>CARE A1+</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F147" t="n">
-        <v>9425.9</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0.07265000000000001</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>HDFB1021</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>INE040A16HU9</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>HDFC Bank Limited</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>CARE A1+</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F148" t="n">
-        <v>7115.24</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0.07099999999999999</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>NBAR870</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>INE261F16AD1</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>National Bank For Agriculture and Rural Development**</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F149" t="n">
-        <v>4679.78</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0.071978</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>SHBK20</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>INE999S16023</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Shinhan Bank**</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>500</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2416.48</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>SHPI21</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>INE526E14086</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Shriram Pistons and Rings Ltd**</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>FITCH A1+</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F151" t="n">
-        <v>4978.48</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0.06859800000000001</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>BMGB51ME</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>INF204KB17I5</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Nippon India ETF Gold Bees</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="n">
-        <v>97272043</v>
-      </c>
-      <c r="F152" t="n">
-        <v>132026.27</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.1055</v>
-      </c>
-      <c r="H152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>149758</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>INF204KC1402</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Nippon India Silver ETF</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="n">
-        <v>20900450</v>
-      </c>
-      <c r="F153" t="n">
-        <v>65963.33</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.0527</v>
-      </c>
-      <c r="H153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr"/>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Long/Short</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Name of the Instrument</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Industry</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Quantity.</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Market/Fair Value (Rs. in Lacs).</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> % to NAV.</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr"/>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>FUTCOM_GOLD_02/04/2026</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>17000</v>
-      </c>
-      <c r="F155" t="n">
-        <v>25898.65</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.0207</v>
-      </c>
-      <c r="H155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr"/>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>FUTCOM_SILVER_05/03/2026</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>3300</v>
-      </c>
-      <c r="F156" t="n">
-        <v>9633.530000000001</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="H156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr"/>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>isin_code</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>security_name</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Yield to Call</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr"/>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>INE090A08UN9</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
           <t>7.4% ICICI Bank Ltd BASEL III Tier2(MD28/11/2040)C</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D134" t="n">
         <v>0.07594328828999999</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
